--- a/medicine/Enfance/Geoffrey_Delinte/Geoffrey_Delinte.xlsx
+++ b/medicine/Enfance/Geoffrey_Delinte/Geoffrey_Delinte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geoffrey Delinte, né le 29 janvier 1989 à La Louvière (province de Hainaut), est un dessinateur de bande dessinée jeunesse et animateur belge francophone.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geoffrey Delinte naît le 29 janvier 1989[1] à La Louvière[2]. Il étudie la bande dessinée à Jemappes et ensuite à l'académie des beaux-arts de Tournai d'où il sort diplômé en 2012[1]. Puis, il rejoint l’association Cheval de quatre où il réalise des bandes dessinées et il fait des animations à diverses occasions et lieux[1]. En 2014, il publie un gag dans Spirou[3]. Et depuis la même année, il contribue à divers fanzines de bande dessinée[2],[4]. Il fonde en 2016, avec son compagnon d'atelier Rémy Benjamin puis avec Valfret, la structure de micro-édition Kaput[2]. Il est lauréat de la bourse de découverte décernée par la Fédération Wallonie-Bruxelles en 2019[2].
-En 2020, il réalise l'album jeunesse La Grande Métamorphose de Théo sur un scénario de Marzena Sowa publié aux éditions La Pastèque[5]. Une bande dessinée sur l’acceptation de soi et de la différence, nommée au prix des écoles dans le cadre du Festival international de la bande dessinée d'Angoulême 2021[6]. Elle figure également dans la sélection 2021 des Pépites internationales dans la catégorie bande dessinée du Salon du livre et de la presse jeunesse à Montreuil[7]. Il est récipiendaire du prix Pépites internationales qu'il partage avec Marzena Sowa pour cet ouvrage[8],[9].
-En 2022, il sort Prise de bec[10],[11] scénarisé par Rémy Benjamin dans la collection « Bulles Bottes Boutons » aux Éditions Motus.
-Parallèlement, il exerce le métier d'animateur bibliothécaire au centre de lecture publique du Mont-de-l'Enclus[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geoffrey Delinte naît le 29 janvier 1989 à La Louvière. Il étudie la bande dessinée à Jemappes et ensuite à l'académie des beaux-arts de Tournai d'où il sort diplômé en 2012. Puis, il rejoint l’association Cheval de quatre où il réalise des bandes dessinées et il fait des animations à diverses occasions et lieux. En 2014, il publie un gag dans Spirou. Et depuis la même année, il contribue à divers fanzines de bande dessinée,. Il fonde en 2016, avec son compagnon d'atelier Rémy Benjamin puis avec Valfret, la structure de micro-édition Kaput. Il est lauréat de la bourse de découverte décernée par la Fédération Wallonie-Bruxelles en 2019.
+En 2020, il réalise l'album jeunesse La Grande Métamorphose de Théo sur un scénario de Marzena Sowa publié aux éditions La Pastèque. Une bande dessinée sur l’acceptation de soi et de la différence, nommée au prix des écoles dans le cadre du Festival international de la bande dessinée d'Angoulême 2021. Elle figure également dans la sélection 2021 des Pépites internationales dans la catégorie bande dessinée du Salon du livre et de la presse jeunesse à Montreuil. Il est récipiendaire du prix Pépites internationales qu'il partage avec Marzena Sowa pour cet ouvrage,.
+En 2022, il sort Prise de bec, scénarisé par Rémy Benjamin dans la collection « Bulles Bottes Boutons » aux Éditions Motus.
+Parallèlement, il exerce le métier d'animateur bibliothécaire au centre de lecture publique du Mont-de-l'Enclus.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il demeure et travaille à Tournai[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il demeure et travaille à Tournai.
 </t>
         </is>
       </c>
@@ -578,22 +594,15 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Albums de bande dessinée
-Bande dessinée jeunesse
-La Grande Métamorphose de Théo[5], La Pastèque, Montréal, 29 mai 2020Scénario : Marzena Sowa - Dessin : Geoffrey Delinte - Couleurs : Amélie Polard, Vivien Beghin -  (ISBN 978-2-89777-077-8)
-Prise de bec[10],[11], Éditions Motus, coll. « Bulles Bottes Boutons », 22 avril 2022Scénario : Rémy Benjamin - Dessin et couleurs : Geoffrey Delinte -  (ISBN 9782360111145),Format comics.
-Journaux et revues
-Dans Spirou
- gag  dans la rubrique Cartes blanches le 30 juillet 2014.
-Fanzines
-Dans Paper
- participation en janvier 2014[12].
-Dans Atelier 24
- participation en septembre 2014[4]
-Dans Cheval de quatre
- participation en février 2015[4].
-Dans Cuistax Ma maison
- participation en septembre 2017[4].</t>
+          <t>Albums de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bande dessinée jeunesse
+La Grande Métamorphose de Théo, La Pastèque, Montréal, 29 mai 2020Scénario : Marzena Sowa - Dessin : Geoffrey Delinte - Couleurs : Amélie Polard, Vivien Beghin -  (ISBN 978-2-89777-077-8)
+Prise de bec Éditions Motus, coll. « Bulles Bottes Boutons », 22 avril 2022Scénario : Rémy Benjamin - Dessin et couleurs : Geoffrey Delinte -  (ISBN 9782360111145),Format comics.</t>
         </is>
       </c>
     </row>
@@ -618,12 +627,214 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Journaux et revues</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Dans Spirou</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> gag  dans la rubrique Cartes blanches le 30 juillet 2014.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Geoffrey_Delinte</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geoffrey_Delinte</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fanzines</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Dans Paper</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> participation en janvier 2014.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Geoffrey_Delinte</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geoffrey_Delinte</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fanzines</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Dans Atelier 24</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> participation en septembre 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Geoffrey_Delinte</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geoffrey_Delinte</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fanzines</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Dans Cheval de quatre</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> participation en février 2015.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Geoffrey_Delinte</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geoffrey_Delinte</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fanzines</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Dans Cuistax Ma maison</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> participation en septembre 2017.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Geoffrey_Delinte</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geoffrey_Delinte</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2021 :  prix Pépites internationales pour La Grande Métamorphose de Théo qu'il partage avec Marzena Sowa[8],[9].</t>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2021 :  prix Pépites internationales pour La Grande Métamorphose de Théo qu'il partage avec Marzena Sowa,.</t>
         </is>
       </c>
     </row>
